--- a/content_extraction/Mapped.xlsx
+++ b/content_extraction/Mapped.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitin\Desktop\projects\my-app\content_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A003548-C2C4-4F03-B2DA-4E0D9D5668FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05753E9-618E-4F4C-8DA8-0A1EAF1BF178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,18 +195,6 @@
     <t>ParkDetails/InAroundPark/Components/IntroductionComponent/SecondColumnText</t>
   </si>
   <si>
-    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Title</t>
-  </si>
-  <si>
-    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Text</t>
-  </si>
-  <si>
-    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/ImageContentid</t>
-  </si>
-  <si>
-    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/ImageAltText</t>
-  </si>
-  <si>
     <t>ParkDetails/SurroundingParks/Components/SurroundingMainVisualWithOfferLabel/Title</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
     <t>ParkDetails/AccomodationList</t>
   </si>
   <si>
-    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent</t>
-  </si>
-  <si>
     <t>ParkDetails/InAroundPark/Components/ParkHomeImageAccordionComponent/AccordionList</t>
   </si>
   <si>
@@ -274,6 +259,21 @@
   </si>
   <si>
     <t>ParkDetails/Components/ParkHomeImageAccordionComponent/AccordionList</t>
+  </si>
+  <si>
+    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks</t>
+  </si>
+  <si>
+    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/Title</t>
+  </si>
+  <si>
+    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/Text</t>
+  </si>
+  <si>
+    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/ImageContentid</t>
+  </si>
+  <si>
+    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/ImageAltText</t>
   </si>
 </sst>
 </file>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -864,7 +864,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
         <v>25</v>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -1414,13 +1414,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -1428,13 +1428,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="s">
-        <v>74</v>
-      </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -1442,13 +1442,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>

--- a/content_extraction/Mapped.xlsx
+++ b/content_extraction/Mapped.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitin\Desktop\projects\my-app\content_extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitin\Desktop\projects\my-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05753E9-618E-4F4C-8DA8-0A1EAF1BF178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E56D44D-BAA0-4790-AA8C-0E1655D64383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
   <si>
     <t>Target</t>
   </si>
@@ -33,10 +33,16 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Mapped</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>ParkDetails/Components/ParkHomeMainVisualComponent/MainImageContentId</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Excel</t>
   </si>
   <si>
     <t>String</t>
@@ -57,9 +63,6 @@
     <t>ParkDetails/ParkCode</t>
   </si>
   <si>
-    <t>Excel</t>
-  </si>
-  <si>
     <t>Park code</t>
   </si>
   <si>
@@ -99,21 +102,36 @@
     <t>ParkDetails/TouristTaxValue</t>
   </si>
   <si>
+    <t>ParkDetails/QualifierList</t>
+  </si>
+  <si>
+    <t>QualifierList_Array</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
     <t>ParkDetails/QualifierList/qualifierName</t>
   </si>
   <si>
-    <t>Array</t>
-  </si>
-  <si>
     <t>ParkDetails/QualifierList/qualifierTitle</t>
   </si>
   <si>
+    <t>ParkDetails/DifferentiatorList</t>
+  </si>
+  <si>
+    <t>DifferentiatorList_Array</t>
+  </si>
+  <si>
     <t>ParkDetails/DifferentiatorList/DifferentiatorName</t>
   </si>
   <si>
     <t>ParkDetails/DifferentiatorList/DifferentiatorTitle</t>
   </si>
   <si>
+    <t>ParkDetails/Components/ParkHomeVisualUSPComponent/UspList</t>
+  </si>
+  <si>
     <t>ParkDetails/Components/ParkHomeVisualUSPComponent/UspList/ImageContentid</t>
   </si>
   <si>
@@ -126,6 +144,9 @@
     <t>ParkDetails/Components/ParkHomeVisualUSPComponent/UspList/Text</t>
   </si>
   <si>
+    <t>ParkDetails/Components/ParkHomeMagazineComponent/Magazines</t>
+  </si>
+  <si>
     <t>ParkDetails/Components/ParkHomeMagazineComponent/Magazines/Title</t>
   </si>
   <si>
@@ -141,13 +162,7 @@
     <t>ParkDetails/Components/ParkHomeMagazineComponent/Magazines/Text</t>
   </si>
   <si>
-    <t>ParkDetails/Components/ParkAccomodationOverviewComponent/AccommodationOverviewList/Title</t>
-  </si>
-  <si>
-    <t>ParkDetails/Components/ParkAccomodationOverviewComponent/AccommodationOverviewList/ImageContentid</t>
-  </si>
-  <si>
-    <t>ParkDetails/Components/ParkAccomodationOverviewComponent/AccommodationOverviewList/ImageAltText</t>
+    <t>ParkDetails/Components/ParkHomeImageAccordionComponent/AccordionList</t>
   </si>
   <si>
     <t>ParkDetails/Components/ParkHomeImageAccordionComponent/AccordionList/Title</t>
@@ -174,6 +189,12 @@
     <t>ParkDetails/Components/ParkHomeDescriptionPanelComponent/ImageAltText</t>
   </si>
   <si>
+    <t>ParkDetails/InAroundPark/Components/ParkHomeImageAccordionComponent/AccordionList</t>
+  </si>
+  <si>
+    <t>InAroundParkAccordionList_array</t>
+  </si>
+  <si>
     <t>ParkDetails/InAroundPark/Components/ParkHomeImageAccordionComponent/AccordionList/Title</t>
   </si>
   <si>
@@ -195,6 +216,24 @@
     <t>ParkDetails/InAroundPark/Components/IntroductionComponent/SecondColumnText</t>
   </si>
   <si>
+    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks</t>
+  </si>
+  <si>
+    <t>contentblock_array</t>
+  </si>
+  <si>
+    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/Title</t>
+  </si>
+  <si>
+    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/Text</t>
+  </si>
+  <si>
+    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/ImageContentid</t>
+  </si>
+  <si>
+    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/ImageAltText</t>
+  </si>
+  <si>
     <t>ParkDetails/SurroundingParks/Components/SurroundingMainVisualWithOfferLabel/Title</t>
   </si>
   <si>
@@ -213,6 +252,12 @@
     <t>ParkDetails/SurroundingParks/Components/SurroundingIntroContentBlockComponent/Text</t>
   </si>
   <si>
+    <t>ParkDetails/AccomodationList</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
     <t>ParkDetails/AccomodationList/AccomodationName</t>
   </si>
   <si>
@@ -231,49 +276,13 @@
     <t>ParkDetails/AccomodationList/AccomodationPageTitle</t>
   </si>
   <si>
-    <t>Mapped</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>ParkDetails/AccomodationList</t>
-  </si>
-  <si>
-    <t>ParkDetails/InAroundPark/Components/ParkHomeImageAccordionComponent/AccordionList</t>
-  </si>
-  <si>
-    <t>ParkDetails/QualifierList</t>
-  </si>
-  <si>
-    <t>ParkDetails/Components/ParkHomeVisualUSPComponent/UspList</t>
-  </si>
-  <si>
-    <t>ParkDetails/Components/ParkHomeMagazineComponent/Magazines</t>
-  </si>
-  <si>
-    <t>ParkDetails/Components/ParkAccomodationOverviewComponent/AccommodationOverviewList</t>
-  </si>
-  <si>
-    <t>ParkDetails/Components/ParkHomeImageAccordionComponent/AccordionList</t>
-  </si>
-  <si>
-    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks</t>
-  </si>
-  <si>
-    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/Title</t>
-  </si>
-  <si>
-    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/Text</t>
-  </si>
-  <si>
-    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/ImageContentid</t>
-  </si>
-  <si>
-    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/ImageAltText</t>
+    <t>usplist_array</t>
+  </si>
+  <si>
+    <t>magazines_array</t>
+  </si>
+  <si>
+    <t>accordionlist_array</t>
   </si>
 </sst>
 </file>
@@ -670,15 +679,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="78.26953125" customWidth="1"/>
+    <col min="1" max="1" width="89.453125" customWidth="1"/>
     <col min="2" max="2" width="32.1796875" customWidth="1"/>
     <col min="3" max="3" width="23.453125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
@@ -692,812 +701,800 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>75</v>
+      <c r="A25" t="s">
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>33</v>
+      <c r="A26" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>76</v>
+      <c r="A31" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>38</v>
+      <c r="A32" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
+      <c r="A33" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>40</v>
+      <c r="A34" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>77</v>
+      <c r="A35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>44</v>
+      <c r="A39" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>45</v>
+      <c r="A40" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>46</v>
+      <c r="A41" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>47</v>
+      <c r="A42" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>48</v>
+      <c r="A43" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>72</v>
+      <c r="A44" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>51</v>
+      <c r="A47" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>52</v>
+      <c r="A48" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>53</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>54</v>
+      <c r="A50" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>78</v>
+      <c r="A52" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>80</v>
+      <c r="A54" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>81</v>
+      <c r="A55" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>59</v>
+      <c r="A60" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>60</v>
+      <c r="A61" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>61</v>
+      <c r="A62" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/content_extraction/Mapped.xlsx
+++ b/content_extraction/Mapped.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitin\Desktop\projects\my-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitin\Desktop\projects\my-app\content_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E56D44D-BAA0-4790-AA8C-0E1655D64383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C86A78-2DC3-403C-A7AD-69BCF359C749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="86">
   <si>
     <t>Target</t>
   </si>
@@ -120,9 +120,6 @@
     <t>ParkDetails/DifferentiatorList</t>
   </si>
   <si>
-    <t>DifferentiatorList_Array</t>
-  </si>
-  <si>
     <t>ParkDetails/DifferentiatorList/DifferentiatorName</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>accordionlist_array</t>
+  </si>
+  <si>
+    <t>differentiatorlist_array</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -915,12 +915,15 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -931,7 +934,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -942,13 +945,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -956,7 +959,7 @@
     </row>
     <row r="22" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -967,7 +970,7 @@
     </row>
     <row r="23" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -978,7 +981,7 @@
     </row>
     <row r="24" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -989,7 +992,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1000,13 +1003,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -1014,7 +1017,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1025,7 +1028,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1036,7 +1039,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1047,7 +1050,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1058,7 +1061,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1069,13 +1072,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
         <v>27</v>
@@ -1083,7 +1086,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1094,7 +1097,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1105,7 +1108,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1116,7 +1119,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1127,7 +1130,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1138,7 +1141,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1149,7 +1152,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -1160,7 +1163,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1171,13 +1174,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
         <v>54</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>55</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
@@ -1185,7 +1188,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1196,7 +1199,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1207,7 +1210,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1218,7 +1221,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="46" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1240,7 +1243,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1251,7 +1254,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1262,13 +1265,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
@@ -1276,7 +1279,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1287,7 +1290,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -1298,7 +1301,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1309,7 +1312,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -1320,7 +1323,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -1331,7 +1334,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1342,7 +1345,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -1353,7 +1356,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -1364,7 +1367,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -1375,7 +1378,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1386,10 +1389,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
         <v>75</v>
-      </c>
-      <c r="B60" t="s">
-        <v>76</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
@@ -1397,13 +1400,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
         <v>77</v>
-      </c>
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" t="s">
-        <v>78</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -1411,13 +1414,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
         <v>79</v>
-      </c>
-      <c r="B62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" t="s">
-        <v>80</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -1425,13 +1428,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -1439,13 +1442,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>

--- a/content_extraction/Mapped.xlsx
+++ b/content_extraction/Mapped.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitin\Desktop\projects\my-app\content_extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VA40169363\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C86A78-2DC3-403C-A7AD-69BCF359C749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D3BFC5-E940-49D1-BAD1-3B88C68205B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="107">
   <si>
     <t>Target</t>
   </si>
@@ -39,18 +50,21 @@
     <t>Type</t>
   </si>
   <si>
-    <t>ParkDetails/Components/ParkHomeMainVisualComponent/MainImageContentId</t>
-  </si>
-  <si>
     <t>Excel</t>
   </si>
   <si>
+    <t>MainImageContentHubId</t>
+  </si>
+  <si>
     <t>String</t>
   </si>
   <si>
     <t>ParkDetails/Components/ParkHomeMainVisualComponent/MainImageAltText</t>
   </si>
   <si>
+    <t>MainImageAltText</t>
+  </si>
+  <si>
     <t>ParkDetails/ParkName</t>
   </si>
   <si>
@@ -84,24 +98,33 @@
     <t>ParkDetails/MdmParkLogoContentHubId</t>
   </si>
   <si>
+    <t>MdmParkLogoContentHubId</t>
+  </si>
+  <si>
     <t>ParkDetails/MdmParkLogoAltText</t>
   </si>
   <si>
+    <t>MdmParkLogoAltText</t>
+  </si>
+  <si>
     <t>ParkDetails/AlwaysAllowPets</t>
   </si>
   <si>
-    <t xml:space="preserve">Pets allowed(petswelcome) </t>
-  </si>
-  <si>
     <t>ParkDetails/PetsBasedOnSearchFacets</t>
   </si>
   <si>
+    <t>PetsBasedOnSearchFacets</t>
+  </si>
+  <si>
     <t>Boolean</t>
   </si>
   <si>
     <t>ParkDetails/TouristTaxValue</t>
   </si>
   <si>
+    <t>TouristTaxValue</t>
+  </si>
+  <si>
     <t>ParkDetails/QualifierList</t>
   </si>
   <si>
@@ -120,6 +143,9 @@
     <t>ParkDetails/DifferentiatorList</t>
   </si>
   <si>
+    <t>DifferentiatorList_Array</t>
+  </si>
+  <si>
     <t>ParkDetails/DifferentiatorList/DifferentiatorName</t>
   </si>
   <si>
@@ -129,7 +155,7 @@
     <t>ParkDetails/Components/ParkHomeVisualUSPComponent/UspList</t>
   </si>
   <si>
-    <t>ParkDetails/Components/ParkHomeVisualUSPComponent/UspList/ImageContentid</t>
+    <t>UspList_Array</t>
   </si>
   <si>
     <t>ParkDetails/Components/ParkHomeVisualUSPComponent/UspList/ImageAltText</t>
@@ -144,12 +170,12 @@
     <t>ParkDetails/Components/ParkHomeMagazineComponent/Magazines</t>
   </si>
   <si>
+    <t>Magazines_Array</t>
+  </si>
+  <si>
     <t>ParkDetails/Components/ParkHomeMagazineComponent/Magazines/Title</t>
   </si>
   <si>
-    <t>ParkDetails/Components/ParkHomeMagazineComponent/Magazines/ImageContentid</t>
-  </si>
-  <si>
     <t>ParkDetails/Components/ParkHomeMagazineComponent/Magazines/ImageAltText</t>
   </si>
   <si>
@@ -162,34 +188,43 @@
     <t>ParkDetails/Components/ParkHomeImageAccordionComponent/AccordionList</t>
   </si>
   <si>
+    <t>AccordionList_Array</t>
+  </si>
+  <si>
     <t>ParkDetails/Components/ParkHomeImageAccordionComponent/AccordionList/Title</t>
   </si>
   <si>
     <t>ParkDetails/Components/ParkHomeImageAccordionComponent/AccordionList/Text</t>
   </si>
   <si>
-    <t>ParkDetails/Components/ParkHomeImageAccordionComponent/AccordionList/ImageContentid</t>
-  </si>
-  <si>
     <t>ParkDetails/Components/ParkHomeImageAccordionComponent/AccordionList/ImageAltText</t>
   </si>
   <si>
     <t>ParkDetails/Components/ParkHomeDescriptionPanelComponent/Title</t>
   </si>
   <si>
+    <t>ParkHomeDescriptionPanelComponent_Title</t>
+  </si>
+  <si>
     <t>ParkDetails/Components/ParkHomeDescriptionPanelComponent/Text</t>
   </si>
   <si>
-    <t>ParkDetails/Components/ParkHomeDescriptionPanelComponent/ImageContentid</t>
+    <t>ParkHomeDescriptionPanelComponent_Text</t>
+  </si>
+  <si>
+    <t>ParkHomeDescriptionPanelComponent_ImageContentHubId</t>
   </si>
   <si>
     <t>ParkDetails/Components/ParkHomeDescriptionPanelComponent/ImageAltText</t>
   </si>
   <si>
+    <t>ParkHomeDescriptionPanelComponent_ImageAltText</t>
+  </si>
+  <si>
     <t>ParkDetails/InAroundPark/Components/ParkHomeImageAccordionComponent/AccordionList</t>
   </si>
   <si>
-    <t>InAroundParkAccordionList_array</t>
+    <t>InAndAroundAccordionList_Array</t>
   </si>
   <si>
     <t>ParkDetails/InAroundPark/Components/ParkHomeImageAccordionComponent/AccordionList/Title</t>
@@ -198,25 +233,31 @@
     <t>ParkDetails/InAroundPark/Components/ParkHomeImageAccordionComponent/AccordionList/Text</t>
   </si>
   <si>
-    <t>ParkDetails/InAroundPark/Components/ParkHomeImageAccordionComponent/AccordionList/ImageContentid</t>
-  </si>
-  <si>
     <t>ParkDetails/InAroundPark/Components/ParkHomeImageAccordionComponent/AccordionList/ImageAltText</t>
   </si>
   <si>
     <t>ParkDetails/InAroundPark/Components/IntroductionComponent/Title</t>
   </si>
   <si>
+    <t>IntroductionComponent_Title</t>
+  </si>
+  <si>
     <t>ParkDetails/InAroundPark/Components/IntroductionComponent/Text</t>
   </si>
   <si>
+    <t>IntroductionComponent_Text</t>
+  </si>
+  <si>
     <t>ParkDetails/InAroundPark/Components/IntroductionComponent/SecondColumnText</t>
   </si>
   <si>
+    <t>IntroductionComponent_SecondColumnText</t>
+  </si>
+  <si>
     <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks</t>
   </si>
   <si>
-    <t>contentblock_array</t>
+    <t>ContentBlocks_Array</t>
   </si>
   <si>
     <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/Title</t>
@@ -225,30 +266,42 @@
     <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/Text</t>
   </si>
   <si>
-    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/ImageContentid</t>
-  </si>
-  <si>
     <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/ImageAltText</t>
   </si>
   <si>
     <t>ParkDetails/SurroundingParks/Components/SurroundingMainVisualWithOfferLabel/Title</t>
   </si>
   <si>
+    <t>SurroundingMainVisualWithOfferLabel_Title</t>
+  </si>
+  <si>
     <t>ParkDetails/SurroundingParks/Components/SurroundingMainVisualWithOfferLabel/SubTitle</t>
   </si>
   <si>
-    <t>ParkDetails/SurroundingParks/Components/SurroundingMainVisualWithOfferLabel/MainVisualImageContentid</t>
+    <t>SurroundingMainVisualWithOfferLabel_SubTitle</t>
+  </si>
+  <si>
+    <t>SurroundingMainVisualWithOfferLabel_MainVisualImageContentHubId</t>
   </si>
   <si>
     <t>ParkDetails/SurroundingParks/Components/SurroundingMainVisualWithOfferLabel/MainVisualAltText</t>
   </si>
   <si>
+    <t>SurroundingMainVisualWithOfferLabel_MainVisualAltText</t>
+  </si>
+  <si>
     <t>ParkDetails/SurroundingParks/Components/SurroundingIntroContentBlockComponent/Title</t>
   </si>
   <si>
+    <t>SurroundingIntroContentBlockComponent_Title</t>
+  </si>
+  <si>
     <t>ParkDetails/SurroundingParks/Components/SurroundingIntroContentBlockComponent/Text</t>
   </si>
   <si>
+    <t>SurroundingIntroContentBlockComponent_Text</t>
+  </si>
+  <si>
     <t>ParkDetails/AccomodationList</t>
   </si>
   <si>
@@ -273,23 +326,44 @@
     <t>ParkDetails/AccomodationList/AccomodationPageTitle</t>
   </si>
   <si>
-    <t>usplist_array</t>
-  </si>
-  <si>
-    <t>magazines_array</t>
-  </si>
-  <si>
-    <t>accordionlist_array</t>
-  </si>
-  <si>
-    <t>differentiatorlist_array</t>
+    <t>AlwaysAllowPets</t>
+  </si>
+  <si>
+    <t>ParkDetails/Components/ParkHomeMainVisualComponent/MainImageContentHubId</t>
+  </si>
+  <si>
+    <t>ParkDetails/Components/ParkHomeDescriptionPanelComponent/ImageContentHubId</t>
+  </si>
+  <si>
+    <t>ParkDetails/Components/ParkHomeVisualUSPComponent/UspList/ImageContentHubId</t>
+  </si>
+  <si>
+    <t>ParkDetails/Components/ParkHomeMagazineComponent/Magazines/ImageContentHubId</t>
+  </si>
+  <si>
+    <t>ParkDetails/Components/ParkHomeImageAccordionComponent/AccordionList/ImageContentHubId</t>
+  </si>
+  <si>
+    <t>ParkDetails/InAroundPark/Components/ParkHomeImageAccordionComponent/AccordionList/ImageContentHubId</t>
+  </si>
+  <si>
+    <t>ParkDetails/InAroundPark/Components/ContentBlockComponent/Blocks/ImageContentHubId</t>
+  </si>
+  <si>
+    <t>ParkDetails/SurroundingParks/Components/SurroundingMainVisualWithOfferLabel/MainVisualImageContentHubId</t>
+  </si>
+  <si>
+    <t>ParkDetails/Language</t>
+  </si>
+  <si>
+    <t>Language</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +381,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
+      <name val="IBMPlexMono"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -336,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -345,6 +425,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,13 +760,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="89.453125" customWidth="1"/>
     <col min="2" max="2" width="32.1796875" customWidth="1"/>
@@ -693,7 +774,7 @@
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -707,797 +788,865 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="80.25" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="80.25" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="54" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
         <v>85</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4">
       <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
